--- a/static/planning/Planning.xlsx
+++ b/static/planning/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/8-Enseñanza/CI15/static/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8E6C2-E7A7-4A49-8E65-BAD009B61DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77E8B4-5D23-EA4D-8973-F49E73FB9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="17500" xr2:uid="{22F359B8-1EEE-584F-93C8-C1E86B75992D}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -626,6 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,7 +944,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40">
-        <v>44905</v>
+        <v>44900</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>44</v>
@@ -1225,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="43">
-        <v>44978</v>
+        <v>44949</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>45</v>
@@ -1234,7 +1235,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15">
@@ -1284,8 +1285,8 @@
       <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>76</v>
+      <c r="E18" s="69" t="s">
+        <v>2</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18">
